--- a/templates/dataplant/MIAPPE_biological_material_and_observation_unit.xlsx
+++ b/templates/dataplant/MIAPPE_biological_material_and_observation_unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/test_Stella/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7040B8A0-2209-2C49-A01A-964AA5DA4491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01340938-892F-4F10-82D6-5CE4120CA854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" activeTab="1" xr2:uid="{0F33DF36-A4CC-4604-A18D-61BD077FEF27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0F33DF36-A4CC-4604-A18D-61BD077FEF27}"/>
   </bookViews>
   <sheets>
     <sheet name="biological_material" sheetId="1" r:id="rId1"/>
@@ -51,157 +51,76 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{BA857457-6657-4AD9-9A12-7B91CF5D6D2C}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=0695f30b-e3d7-4c6b-b3c2-4ebdccab8670</t>
-        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{142D07E3-1D68-4EA5-BB08-9050165A9D5A}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{984EEE78-EC91-41FA-89C1-54B1ACF4B37E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{E50B3694-F660-4066-A2B0-4AC4AE0739A1}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{969A7CEA-0B3F-45B0-ABA0-FBE11E9E0743}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{396D65E8-ED4C-45AB-8957-B9A86D3CC59F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{59ADA713-4A64-477C-9FE5-89A5A03E0EBD}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{2050CBDC-7534-48DC-9B0B-6A9AFF86215E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{DB5666DC-4F86-41EF-8B55-C65D3B271F02}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -209,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>Source Name</t>
   </si>
@@ -490,9 +409,6 @@
     <t>biological material</t>
   </si>
   <si>
-    <t>observation unit</t>
-  </si>
-  <si>
     <t>Dörpholz</t>
   </si>
   <si>
@@ -524,6 +440,12 @@
   </si>
   <si>
     <t>1.0.2</t>
+  </si>
+  <si>
+    <t>Observation Unit</t>
+  </si>
+  <si>
+    <t>MIAPPE:0069</t>
   </si>
 </sst>
 </file>
@@ -719,8 +641,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="57">
     <dxf>
@@ -1111,9 +1033,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1151,7 +1073,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1257,7 +1179,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1399,7 +1321,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1464,66 +1386,66 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.77734375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="37.33203125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="30.77734375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.77734375" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.77734375" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.77734375" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="53.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.77734375" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="37.33203125" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="67.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="30.77734375" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="68.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="68.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.77734375" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="37.33203125" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="30.77734375" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="37.33203125" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="30.77734375" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.77734375" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="30.77734375" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="50.83203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="50.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="30.77734375" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="39.77734375" bestFit="1" customWidth="1"/>
     <col min="48" max="49" width="0" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="51" max="52" width="0" hidden="1" customWidth="1"/>
     <col min="53" max="53" width="32" bestFit="1" customWidth="1"/>
     <col min="54" max="55" width="0" hidden="1" customWidth="1"/>
     <col min="56" max="56" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="57" max="58" width="0" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1702,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1774,17 +1696,17 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.5" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1792,7 +1714,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1800,15 +1722,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1816,7 +1738,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1824,7 +1746,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1832,37 +1754,37 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1873,126 +1795,129 @@
         <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
